--- a/2-PERSONAL/7-FALTAS/7. FALTAS PERSONAL PUCUSANA .xlsx
+++ b/2-PERSONAL/7-FALTAS/7. FALTAS PERSONAL PUCUSANA .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\7-FALTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6AA0C-C35D-449A-8AFE-E3CF2EF988A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BDE07-9203-401D-A9EB-FABCF5131B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -36,20 +36,134 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>EVENTO</t>
-  </si>
-  <si>
-    <t>MOTIVO</t>
-  </si>
-  <si>
     <t>REGISTRO DE FALTAS Y PERMISOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>ALVAREZ CANALES</t>
+  </si>
+  <si>
+    <t>JENNY ISABEL</t>
+  </si>
+  <si>
+    <t>ANTONIETTE FRANCIA</t>
+  </si>
+  <si>
+    <t>MARIA MILAGROS</t>
+  </si>
+  <si>
+    <t>CAMASCA QUINTO</t>
+  </si>
+  <si>
+    <t>LEYDI HELEN</t>
+  </si>
+  <si>
+    <t>DIAZ CORTEZ</t>
+  </si>
+  <si>
+    <t>DANITZA KATHERINE</t>
+  </si>
+  <si>
+    <t>GOMEZ RUFINO</t>
+  </si>
+  <si>
+    <t>EDER GRACIEL</t>
+  </si>
+  <si>
+    <t>INCHE ALMERCO</t>
+  </si>
+  <si>
+    <t>DAVID RENZO</t>
+  </si>
+  <si>
+    <t>MARCIAL MOLINA</t>
+  </si>
+  <si>
+    <t>SARA MELISSA</t>
+  </si>
+  <si>
+    <t>MEZA MALASQUEZ</t>
+  </si>
+  <si>
+    <t>LISBETH PAULINA</t>
+  </si>
+  <si>
+    <t>PUICON JAVIER</t>
+  </si>
+  <si>
+    <t>MARIA CRUZ</t>
+  </si>
+  <si>
+    <t>PULLO GONZALES</t>
+  </si>
+  <si>
+    <t>DANNY</t>
+  </si>
+  <si>
+    <t>RAMIREZ HUAMANI</t>
+  </si>
+  <si>
+    <t>FIORELLA STHEFANI</t>
+  </si>
+  <si>
+    <t>TORRES MORALES</t>
+  </si>
+  <si>
+    <t>MERY LANDIS</t>
+  </si>
+  <si>
+    <t>TRUJILLO MAITA</t>
+  </si>
+  <si>
+    <t>VALESKA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>VEGA GONZALES</t>
+  </si>
+  <si>
+    <t>CHRISTIAN MOISES</t>
+  </si>
+  <si>
+    <t>VILLAZANA CASTILLON</t>
+  </si>
+  <si>
+    <t>LUIZ ALBERTO</t>
+  </si>
+  <si>
+    <t>ZEVALLOS ZEVALLOS</t>
+  </si>
+  <si>
+    <t>MILAGROS RUBI</t>
+  </si>
+  <si>
+    <t>ATAHUA LINARES</t>
+  </si>
+  <si>
+    <t>KAMILA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>PERMISO</t>
+  </si>
+  <si>
+    <t>Estudios</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +171,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,12 +201,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,43 +573,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B6" s="9">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>44751</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>